--- a/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1169115788941337</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1968333949208778</v>
+        <v>0.1968333949208777</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1545234520555539</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07435917486107002</v>
+        <v>0.07551251224730167</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1424258020563355</v>
+        <v>0.1427850889877656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1178074566131396</v>
+        <v>0.1218365248330847</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1807438482897029</v>
+        <v>0.1788932949565115</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2548873725811261</v>
+        <v>0.2552305472992416</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1962025106123187</v>
+        <v>0.1980579529750663</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1420411424266833</v>
+        <v>0.1377649228887223</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1701530640329735</v>
+        <v>0.1713827652274788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.169803852601072</v>
+        <v>0.1688430310274596</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2376570675139341</v>
+        <v>0.2336850473995062</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2489769742632619</v>
+        <v>0.2498179554343085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2319980229991756</v>
+        <v>0.2300311285509371</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1742367099350764</v>
+        <v>0.1742367099350763</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2974740583345878</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1434072667991827</v>
+        <v>0.1468532856883854</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2677968592747459</v>
+        <v>0.2678191514391391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2125769501312225</v>
+        <v>0.2130184692372517</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.210410170341863</v>
+        <v>0.2088922478965063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3285843518397066</v>
+        <v>0.3275903973671361</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2584369269640872</v>
+        <v>0.2593621475598948</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.3725676739994837</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3108836463825929</v>
+        <v>0.310883646382593</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2122948177487259</v>
+        <v>0.213725903159901</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3446370275375801</v>
+        <v>0.3451280608361423</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2879072705583741</v>
+        <v>0.2893139262390661</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2826748639969023</v>
+        <v>0.279467046044563</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3993000256799439</v>
+        <v>0.4001649703250537</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3320619034272986</v>
+        <v>0.3323899615283272</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2592667528873395</v>
+        <v>0.2622590052374154</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4021341150408363</v>
+        <v>0.4045677127968517</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3425108279660931</v>
+        <v>0.341377373420748</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3301772382628068</v>
+        <v>0.3296031276839403</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4669210642028245</v>
+        <v>0.4631301456526084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3872542784641321</v>
+        <v>0.3893323898812871</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.5251324913069947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.4014924377790134</v>
+        <v>0.4014924377790136</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2309539925248938</v>
+        <v>0.2328324257177391</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4921039155397938</v>
+        <v>0.4897252316962032</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3762660669540394</v>
+        <v>0.3764415227381167</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3087471049321353</v>
+        <v>0.3046119665873642</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5616185393814807</v>
+        <v>0.5580591662441778</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4287257541732708</v>
+        <v>0.428219298252045</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.3971768416243389</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6652092314317497</v>
+        <v>0.6652092314317498</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.557900995260491</v>
+        <v>0.5579009952604909</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3529151298299891</v>
+        <v>0.3509050745258634</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6324817128589307</v>
+        <v>0.628754864675903</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5296790627036286</v>
+        <v>0.5301404362541127</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4423006231419427</v>
+        <v>0.4430345325254568</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6953701409483828</v>
+        <v>0.694041756759315</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5863019034841294</v>
+        <v>0.5844188428843022</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.2343875668078073</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.3852442282092558</v>
+        <v>0.3852442282092557</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.3119345333659548</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2205059173152155</v>
+        <v>0.2192657142338669</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3716091974299672</v>
+        <v>0.3712981889071949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3017833033591725</v>
+        <v>0.3021886901114751</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2500003067216884</v>
+        <v>0.251420363277917</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.399332062798248</v>
+        <v>0.3984778390431452</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3224079061697446</v>
+        <v>0.323501419293903</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30323</v>
+        <v>30793</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>51631</v>
+        <v>51761</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>90748</v>
+        <v>93851</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>73706</v>
+        <v>72951</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>92400</v>
+        <v>92524</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>151136</v>
+        <v>152565</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>67738</v>
+        <v>65699</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>85371</v>
+        <v>85988</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>166174</v>
+        <v>165234</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>113336</v>
+        <v>111442</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>124920</v>
+        <v>125342</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>227039</v>
+        <v>225114</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>89033</v>
+        <v>91172</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>166889</v>
+        <v>166903</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>264452</v>
+        <v>265001</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>130630</v>
+        <v>129688</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>204771</v>
+        <v>204152</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>321503</v>
+        <v>322654</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>148737</v>
+        <v>149740</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>253958</v>
+        <v>254320</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>413868</v>
+        <v>415890</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>198047</v>
+        <v>195799</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>294239</v>
+        <v>294876</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>477340</v>
+        <v>477812</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>157983</v>
+        <v>159806</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>244841</v>
+        <v>246323</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>417247</v>
+        <v>415867</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>201192</v>
+        <v>200842</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>284287</v>
+        <v>281979</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>471754</v>
+        <v>474285</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>94017</v>
+        <v>94781</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>216115</v>
+        <v>215071</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>318414</v>
+        <v>318562</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>125685</v>
+        <v>124001</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>246644</v>
+        <v>245081</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>362807</v>
+        <v>362379</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>109474</v>
+        <v>108850</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>293857</v>
+        <v>292125</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>410399</v>
+        <v>410757</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>137201</v>
+        <v>137428</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>323075</v>
+        <v>322458</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>454271</v>
+        <v>452812</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>778995</v>
+        <v>774614</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1388686</v>
+        <v>1387524</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2193879</v>
+        <v>2196826</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>883192</v>
+        <v>888208</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1492286</v>
+        <v>1489093</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2343814</v>
+        <v>2351763</v>
       </c>
     </row>
     <row r="36">
